--- a/data/INSRTR_mutants.xlsx
+++ b/data/INSRTR_mutants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\owncloud\Projekti_KI\SIDE\2022-06-10__CCRegulation\INSRTR\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B3AB9EF-E67E-4484-A422-8DEC80CC33ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F92CE4E-57D4-4A8C-977A-6657D49FA2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17310" yWindow="-21795" windowWidth="35940" windowHeight="21840" xr2:uid="{C28F7611-3849-431B-89D4-E3A9204A0D68}"/>
+    <workbookView xWindow="-23790" yWindow="-21720" windowWidth="36015" windowHeight="21840" xr2:uid="{C28F7611-3849-431B-89D4-E3A9204A0D68}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,8 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={B5FFF629-FF1A-4072-AE93-41EBA9F347D8}</author>
+    <author>tc={0105F18E-0AE2-4F5D-8FBA-A727C4069CF8}</author>
+    <author>tc={1BB2E2E7-E2E5-42B3-8C05-B1623DCAF7F5}</author>
   </authors>
   <commentList>
     <comment ref="F23" authorId="0" shapeId="0" xr:uid="{B5FFF629-FF1A-4072-AE93-41EBA9F347D8}">
@@ -49,12 +51,29 @@
     Double check linkers!</t>
       </text>
     </comment>
+    <comment ref="C50" authorId="1" shapeId="0" xr:uid="{0105F18E-0AE2-4F5D-8FBA-A727C4069CF8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Sequences are WRONG?</t>
+      </text>
+    </comment>
+    <comment ref="N58" authorId="2" shapeId="0" xr:uid="{1BB2E2E7-E2E5-42B3-8C05-B1623DCAF7F5}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This is plain wrong
+</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="190">
   <si>
     <t>Name</t>
   </si>
@@ -617,17 +636,20 @@
     <t>fLuc</t>
   </si>
   <si>
-    <t>Insert_index1</t>
-  </si>
-  <si>
     <t>MGSGEDAKNIKKGPAPFYPLEDGTAGEQLHKAMKRYALVPGTIAFTDAHIEVDITYAEYFEMSVRLAEAMKRYGLNTNHRIVVCSENSLQFFMPVLGALFIGVAVAPANDIYNERELLNSMGISQPTVVFVSKKGLQKILNVQKKLPIIQKIIIMDSKTDYQGFQSMYTFVTSHLPPGFNEYDFVPESFDRDKTIALIMNSSGSTGLPKGVALPHRTACVRFSHARDPIFGNQIIPDTAILSVVPFHHGFGMFTTLGYLICGFRVVLMYRFEEELFLRSLQDYKIQSALLVPTLFSFFAKSTLIDKYDLSNLHEIASGGAPLSKEVGEAVAKRFHLPGIRQGYGLTETTSAILITPEGDDKPGAVGKVVPFFEAKVVDLDTGKTLGVNQRGELCVRGPMIMSGYVNNPEATNALIDKDGWLHSGDIAYWDEDEHFFIVDRLKSLIKYKGYQVAPAELESILLQHPNIFDAGVAGLPDDDAGELPAAVVVLEHGKYGKIAALKAENAALEAKIAALKAEIAALEAGTMTEKEIVDYVASQVTTAKKLRGGVVFVDEVPKGLTGKLDARKIREILIKAKKGGKIAVNSGSGYPYDVPDYA</t>
+  </si>
+  <si>
+    <t>insert_index1</t>
+  </si>
+  <si>
+    <t>GYGGSGGG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -639,6 +661,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -1070,6 +1098,13 @@
   <threadedComment ref="F23" dT="2022-12-07T14:58:00.36" personId="{75951B80-C483-49E3-8955-C7A68C96B686}" id="{B5FFF629-FF1A-4072-AE93-41EBA9F347D8}">
     <text>Double check linkers!</text>
   </threadedComment>
+  <threadedComment ref="C50" dT="2022-12-07T15:09:55.42" personId="{75951B80-C483-49E3-8955-C7A68C96B686}" id="{0105F18E-0AE2-4F5D-8FBA-A727C4069CF8}">
+    <text>Sequences are WRONG?</text>
+  </threadedComment>
+  <threadedComment ref="N58" dT="2022-12-08T12:37:09.99" personId="{75951B80-C483-49E3-8955-C7A68C96B686}" id="{1BB2E2E7-E2E5-42B3-8C05-B1623DCAF7F5}">
+    <text xml:space="preserve">This is plain wrong
+</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -1078,15 +1113,16 @@
   <dimension ref="A1:O58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+      <selection activeCell="N58" sqref="N58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" customWidth="1"/>
     <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
@@ -1138,7 +1174,7 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>13</v>
@@ -3270,13 +3306,13 @@
         <v>164</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>19</v>
+        <v>189</v>
       </c>
       <c r="G50" s="10" t="s">
         <v>24</v>
@@ -3299,9 +3335,9 @@
       <c r="M50" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="N50" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="N50" s="3">
+        <f t="shared" si="0"/>
+        <v>213</v>
       </c>
     </row>
     <row r="51" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -3315,13 +3351,13 @@
         <v>167</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>19</v>
+        <v>189</v>
       </c>
       <c r="G51" s="10" t="s">
         <v>24</v>
@@ -3344,9 +3380,9 @@
       <c r="M51" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="N51" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="N51" s="3">
+        <f t="shared" si="0"/>
+        <v>222</v>
       </c>
     </row>
     <row r="52" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -3360,13 +3396,13 @@
         <v>170</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>19</v>
+        <v>189</v>
       </c>
       <c r="G52" s="10" t="s">
         <v>24</v>
@@ -3389,9 +3425,9 @@
       <c r="M52" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="N52" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="N52" s="3">
+        <f t="shared" si="0"/>
+        <v>233</v>
       </c>
     </row>
     <row r="53" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -3405,13 +3441,13 @@
         <v>173</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>19</v>
+        <v>189</v>
       </c>
       <c r="G53" s="10" t="s">
         <v>24</v>
@@ -3434,9 +3470,9 @@
       <c r="M53" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="N53" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="N53" s="3">
+        <f t="shared" si="0"/>
+        <v>282</v>
       </c>
     </row>
     <row r="54" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3603,7 +3639,7 @@
         <v>186</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>93</v>
@@ -3618,8 +3654,7 @@
         <v>22</v>
       </c>
       <c r="N58" s="3">
-        <f t="shared" si="0"/>
-        <v>495</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>

--- a/data/INSRTR_mutants.xlsx
+++ b/data/INSRTR_mutants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\owncloud\Projekti_KI\SIDE\2022-06-10__CCRegulation\INSRTR\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F92CE4E-57D4-4A8C-977A-6657D49FA2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57C900C-47A6-4902-86A5-36108E4F2473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23790" yWindow="-21720" windowWidth="36015" windowHeight="21840" xr2:uid="{C28F7611-3849-431B-89D4-E3A9204A0D68}"/>
+    <workbookView xWindow="3000" yWindow="-120" windowWidth="25920" windowHeight="16440" xr2:uid="{C28F7611-3849-431B-89D4-E3A9204A0D68}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -414,9 +414,6 @@
     <t>Bgal</t>
   </si>
   <si>
-    <t>MVLQRRDWENPGVTQLGSSGSYGKIAALKAENAALEAKIAALKAEIAALEAGGSGGNRLAAHPPFASWRNSEEARTDRPSQQLRSLNGEWRFAWFPAPEAVPESWLECDLPEADTVVVPSNWQMHGYDAPIYTNVTYPITVNPPFVPTENPTGCYSLTFNVDESWLQEGQTRIIFDGVNSAFHLWCNGRWVGYGQDSRLPSEFDLSAFLRAGENRLAVMVLRWSDGSYLEDQDMWRMSGIFRDVSLLHKPTTQISDFHVATRFNDDFSRAVLEAEVQMCGELRDYLRVTVSLWQGETQVASGTAPFGGEIIDERGGYADRVTLRLNVENPKLWSAEIPNLYRAVVELHTADGTLIEAEACDVGFREVRIENGLLLLNGKPLLIRGVNRHEHHPLHGQVMDEQTMVQDILLMKQNNFNAVRCSHYPNHPLWYTLCDRYGLYVVDEANIETHGMVPMNRLTDDPRWLPAMSERVTRMVQRDRNHPSVIIWSLGNESGHGANHDALYRWIKSVDPSRPVQYEGGGADTTATDIICPMYARVDEDQPFPAVPKWSIKKWLSLPGETRPLILCEYAHAMGNSLGGFAKYWQAFRQYPRLQGGFVWDWVDQSLIKYDENGNPWSAYGGDFGDTPNDRQFCMNGLVFADRTPHPALTEAKHQQQFFQFRLSGQTIEVTSEYLFRHSDNELLHWMVALDGKPLASGEVPLDVAPQGKQLIELPELPQPESAGQLWLTVRVVQPNATAWSEAGHISAWQQWRLAENLSVTLPAASHAIPHLTTSEMDFCIELGNKRWQFNRQSGFLSQMWIGDKKQLLTPLRDQFTRAPLDNDIGVSEATRIDPNAWVERWKAAGHYQAEAALLQCTADTLADAVLITTAHAWQHQGKTLFISRKTYRIDGSGQMAITVDVEVASDTPHPARIGLNCQLAQVAERVNWLGLGPQENYPDRLTAACFDRWDLPLSDMYTPYVFPSENGLRCGTRELNYGPHQWRGDFQFNISRYSQQQLMETSHRHLLHAEEGTWLNIDGFHMGIGGDDSWSPSVSAEFQLSAGRYHYQLVWCQKYPYDVPDYA</t>
-  </si>
-  <si>
     <t>7,4</t>
   </si>
   <si>
@@ -643,13 +640,16 @@
   </si>
   <si>
     <t>GYGGSGGG</t>
+  </si>
+  <si>
+    <t>yghbgvbhnjbgvcfxm j,n</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -661,12 +661,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -799,7 +793,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1087,7 +1081,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1112,8 +1106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3FA0414-A178-405F-87E4-800BC01F2574}">
   <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N58" sqref="N58"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,7 +1168,7 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>13</v>
@@ -1260,7 +1254,7 @@
         <v>25</v>
       </c>
       <c r="N3" s="3">
-        <f t="shared" ref="N3:N58" si="0">FIND(D3&amp;E3&amp;F3,C3)</f>
+        <f t="shared" ref="N3:N57" si="0">FIND(D3&amp;E3&amp;F3,C3)</f>
         <v>279</v>
       </c>
     </row>
@@ -2538,7 +2532,7 @@
         <v>112</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>113</v>
+        <v>189</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>17</v>
@@ -2559,7 +2553,7 @@
         <v>42</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K33" s="8" t="s">
         <v>42</v>
@@ -2570,20 +2564,20 @@
       <c r="M33" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="N33" s="3">
-        <f t="shared" si="0"/>
-        <v>17</v>
+      <c r="N33" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="34" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>112</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>17</v>
@@ -2622,13 +2616,13 @@
     </row>
     <row r="35" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>112</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>17</v>
@@ -2649,7 +2643,7 @@
         <v>22</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K35" s="8" t="s">
         <v>22</v>
@@ -2667,13 +2661,13 @@
     </row>
     <row r="36" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>112</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>17</v>
@@ -2694,7 +2688,7 @@
         <v>42</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K36" s="8" t="s">
         <v>22</v>
@@ -2712,13 +2706,13 @@
     </row>
     <row r="37" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>112</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>17</v>
@@ -2739,7 +2733,7 @@
         <v>22</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K37" s="8" t="s">
         <v>22</v>
@@ -2757,13 +2751,13 @@
     </row>
     <row r="38" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>112</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>17</v>
@@ -2784,7 +2778,7 @@
         <v>42</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K38" s="8" t="s">
         <v>42</v>
@@ -2802,13 +2796,13 @@
     </row>
     <row r="39" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>112</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>17</v>
@@ -2829,7 +2823,7 @@
         <v>22</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K39" s="8" t="s">
         <v>22</v>
@@ -2847,13 +2841,13 @@
     </row>
     <row r="40" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>112</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>17</v>
@@ -2892,13 +2886,13 @@
     </row>
     <row r="41" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>112</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>17</v>
@@ -2919,7 +2913,7 @@
         <v>42</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K41" s="8" t="s">
         <v>42</v>
@@ -2937,13 +2931,13 @@
     </row>
     <row r="42" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>112</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>17</v>
@@ -2964,7 +2958,7 @@
         <v>42</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K42" s="8" t="s">
         <v>42</v>
@@ -2982,13 +2976,13 @@
     </row>
     <row r="43" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>112</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>17</v>
@@ -3009,7 +3003,7 @@
         <v>42</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K43" s="8" t="s">
         <v>22</v>
@@ -3027,13 +3021,13 @@
     </row>
     <row r="44" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>112</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>17</v>
@@ -3054,7 +3048,7 @@
         <v>42</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K44" s="8" t="s">
         <v>42</v>
@@ -3072,19 +3066,19 @@
     </row>
     <row r="45" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B45" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="C45" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="D45" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="9" t="s">
         <v>148</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>149</v>
       </c>
       <c r="F45" s="9" t="s">
         <v>19</v>
@@ -3099,7 +3093,7 @@
         <v>42</v>
       </c>
       <c r="J45" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K45" s="9" t="s">
         <v>42</v>
@@ -3117,19 +3111,19 @@
     </row>
     <row r="46" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B46" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>152</v>
-      </c>
       <c r="D46" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F46" s="9" t="s">
         <v>19</v>
@@ -3162,19 +3156,19 @@
     </row>
     <row r="47" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="B47" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>154</v>
-      </c>
       <c r="D47" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F47" s="9" t="s">
         <v>19</v>
@@ -3189,7 +3183,7 @@
         <v>22</v>
       </c>
       <c r="J47" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K47" s="9" t="s">
         <v>22</v>
@@ -3207,19 +3201,19 @@
     </row>
     <row r="48" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="B48" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>157</v>
-      </c>
       <c r="D48" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F48" s="9" t="s">
         <v>19</v>
@@ -3234,7 +3228,7 @@
         <v>22</v>
       </c>
       <c r="J48" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K48" s="9" t="s">
         <v>22</v>
@@ -3252,19 +3246,19 @@
     </row>
     <row r="49" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B49" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>160</v>
-      </c>
       <c r="D49" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F49" s="9" t="s">
         <v>19</v>
@@ -3279,7 +3273,7 @@
         <v>22</v>
       </c>
       <c r="J49" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K49" s="9" t="s">
         <v>22</v>
@@ -3297,13 +3291,13 @@
     </row>
     <row r="50" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="C50" s="10" t="s">
         <v>163</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>164</v>
       </c>
       <c r="D50" s="10" t="s">
         <v>30</v>
@@ -3312,7 +3306,7 @@
         <v>25</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G50" s="10" t="s">
         <v>24</v>
@@ -3324,7 +3318,7 @@
         <v>22</v>
       </c>
       <c r="J50" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K50" s="10" t="s">
         <v>22</v>
@@ -3342,13 +3336,13 @@
     </row>
     <row r="51" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C51" s="10" t="s">
         <v>166</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>167</v>
       </c>
       <c r="D51" s="10" t="s">
         <v>30</v>
@@ -3357,7 +3351,7 @@
         <v>25</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G51" s="10" t="s">
         <v>24</v>
@@ -3369,7 +3363,7 @@
         <v>22</v>
       </c>
       <c r="J51" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K51" s="10" t="s">
         <v>22</v>
@@ -3387,13 +3381,13 @@
     </row>
     <row r="52" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C52" s="10" t="s">
         <v>169</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>170</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>30</v>
@@ -3402,7 +3396,7 @@
         <v>25</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G52" s="10" t="s">
         <v>24</v>
@@ -3414,7 +3408,7 @@
         <v>22</v>
       </c>
       <c r="J52" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K52" s="10" t="s">
         <v>22</v>
@@ -3432,13 +3426,13 @@
     </row>
     <row r="53" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C53" s="10" t="s">
         <v>172</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>173</v>
       </c>
       <c r="D53" s="10" t="s">
         <v>30</v>
@@ -3447,7 +3441,7 @@
         <v>25</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G53" s="10" t="s">
         <v>24</v>
@@ -3459,7 +3453,7 @@
         <v>42</v>
       </c>
       <c r="J53" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K53" s="10" t="s">
         <v>42</v>
@@ -3477,13 +3471,13 @@
     </row>
     <row r="54" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B54" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="C54" s="11" t="s">
         <v>176</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>177</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>17</v>
@@ -3516,13 +3510,13 @@
     </row>
     <row r="55" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B55" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="C55" s="11" t="s">
         <v>179</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>180</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>17</v>
@@ -3555,13 +3549,13 @@
     </row>
     <row r="56" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C56" s="11" t="s">
         <v>181</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>182</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>17</v>
@@ -3594,13 +3588,13 @@
     </row>
     <row r="57" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C57" s="11" t="s">
         <v>183</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>184</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>17</v>
@@ -3633,13 +3627,13 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B58" t="s">
         <v>185</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>93</v>
